--- a/data/trans_dic/P20D2_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P20D2_R_2023-Dificultad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.5592941868285637</v>
+        <v>0.5592941868285636</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2986783974945222</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3215572725677262</v>
+        <v>0.3044252738471793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07967748311939592</v>
+        <v>0.07929954660192348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2825208401169086</v>
+        <v>0.2761004893343096</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8002444090738597</v>
+        <v>0.7901514416486477</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5621168452361135</v>
+        <v>0.5903759529246446</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6662837116476058</v>
+        <v>0.6541740768160915</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7749845040966649</v>
+        <v>0.774984504096665</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.5527653752201741</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6597214101111385</v>
+        <v>0.6597214101111386</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4795143123904351</v>
+        <v>0.5341849920946733</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.364641331342583</v>
+        <v>0.3762094027879216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5101270760524874</v>
+        <v>0.5177697515183822</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.934465436439941</v>
+        <v>0.9390405374887513</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7309340016139412</v>
+        <v>0.7322463054223319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7946713112061824</v>
+        <v>0.8003807386662074</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8045770955664829</v>
+        <v>0.8045770955664828</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.290839146787382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5559064569966985</v>
+        <v>0.5559064569966986</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5400388952575234</v>
+        <v>0.5678561718728161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1354755121107926</v>
+        <v>0.1289622927641705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3814731780381876</v>
+        <v>0.4063787156476723</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9461780694810918</v>
+        <v>0.9434849697278648</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5400732567488166</v>
+        <v>0.5159260558556596</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7083293140244968</v>
+        <v>0.7212677551665145</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.8134964929749982</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4464094457253669</v>
+        <v>0.4464094457253668</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6410957084892991</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5685358093484845</v>
+        <v>0.5720317618211839</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2023183523477728</v>
+        <v>0.1927592926794134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4896346986443529</v>
+        <v>0.4777720272337315</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9502846433702423</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7645055123448732</v>
+        <v>0.7289267411029953</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7909135019053544</v>
+        <v>0.7999599603261707</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7399224932280498</v>
+        <v>0.7399224932280501</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4105059974479598</v>
+        <v>0.41050599744796</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.5877635739907279</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6292579521627114</v>
+        <v>0.621053927480866</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3010577069183517</v>
+        <v>0.3086300968517023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5042357907681905</v>
+        <v>0.4971566156628182</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8366795383816439</v>
+        <v>0.8338867206991099</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5504100020221605</v>
+        <v>0.5625436536672241</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6715893841487719</v>
+        <v>0.6670271581291833</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5239</v>
+        <v>4960</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7107</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13038</v>
+        <v>12874</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4983</v>
+        <v>5233</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16762</v>
+        <v>16457</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7200</v>
+        <v>8021</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5901</v>
+        <v>6088</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15915</v>
+        <v>16153</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14032</v>
+        <v>14101</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11828</v>
+        <v>11849</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24792</v>
+        <v>24970</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9072</v>
+        <v>9539</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2135</v>
+        <v>2032</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12419</v>
+        <v>13230</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15894</v>
+        <v>15849</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8511</v>
+        <v>8130</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23060</v>
+        <v>23482</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10281</v>
+        <v>10345</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3240</v>
+        <v>3087</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16695</v>
+        <v>16291</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17185</v>
+        <v>18084</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12243</v>
+        <v>11673</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26968</v>
+        <v>27276</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>41651</v>
+        <v>41108</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17105</v>
+        <v>17536</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>62026</v>
+        <v>61155</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>55380</v>
+        <v>55195</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31273</v>
+        <v>31963</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>82612</v>
+        <v>82050</v>
       </c>
     </row>
     <row r="24">
